--- a/exam.xlsx
+++ b/exam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="35">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -126,9 +126,6 @@
   <si>
     <t xml:space="preserve">대전</t>
   </si>
-  <si>
-    <t xml:space="preserve">테스트</t>
-  </si>
 </sst>
 </file>
 
@@ -204,16 +201,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -240,7 +233,7 @@
       <selection pane="topLeft" activeCell="A468" activeCellId="0" sqref="A468"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10"/>
@@ -1386,56 +1379,56 @@
         <v>M</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="2" t="n">
+    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="0" t="n">
         <v>45836051</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="0" t="n">
         <v>121</v>
       </c>
-      <c r="F22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="n">
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="n">
         <f aca="false">E22+F22</f>
         <v>121</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="I22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="n">
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0" t="n">
         <f aca="false">H22+I22</f>
         <v>89</v>
       </c>
-      <c r="K22" s="2" t="n">
+      <c r="K22" s="0" t="n">
         <v>77018460</v>
       </c>
-      <c r="L22" s="2" t="n">
+      <c r="L22" s="0" t="n">
         <v>77</v>
       </c>
       <c r="M22" s="1" t="n">
         <f aca="false">K22/L22</f>
         <v>1000239.74025974</v>
       </c>
-      <c r="N22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P22" s="2" t="str">
+      <c r="N22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="0" t="str">
         <f aca="false">IF(N22=1,"M","F")</f>
         <v>M</v>
       </c>
@@ -13914,56 +13907,56 @@
         <v>M</v>
       </c>
     </row>
-    <row r="254" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="2" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B254" s="2" t="n">
+    <row r="254" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B254" s="0" t="n">
         <v>555120006</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C254" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D254" s="2" t="s">
+      <c r="D254" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E254" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F254" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G254" s="2" t="n">
+      <c r="E254" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" s="0" t="n">
         <f aca="false">E254+F254</f>
         <v>0</v>
       </c>
-      <c r="H254" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" s="2" t="n">
+      <c r="H254" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" s="0" t="n">
         <f aca="false">H254+I254</f>
         <v>0</v>
       </c>
-      <c r="K254" s="2" t="n">
+      <c r="K254" s="0" t="n">
         <v>9800000</v>
       </c>
-      <c r="L254" s="2" t="n">
+      <c r="L254" s="0" t="n">
         <v>22</v>
       </c>
       <c r="M254" s="1" t="n">
         <f aca="false">K254/L254</f>
         <v>445454.545454546</v>
       </c>
-      <c r="N254" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O254" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P254" s="2" t="str">
+      <c r="N254" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O254" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="P254" s="0" t="str">
         <f aca="false">IF(N254=1,"M","F")</f>
         <v>M</v>
       </c>
@@ -25470,11 +25463,7 @@
         <v>M</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
